--- a/biology/Zoologie/Aphrissa_fluminensis/Aphrissa_fluminensis.xlsx
+++ b/biology/Zoologie/Aphrissa_fluminensis/Aphrissa_fluminensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aphrissa fluminensis est une espèce de lépidoptères de la famille des Pieridae, de la sous-famille des Coliadinae, du genre Aphrissa.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce papillon est de couleur jaune avec une partie basale jaune d'or et une partie jaune plus clair sur le recto. Les antérieures sont finement bordées de marron. Le revers est plus clair. Dans sa description de 1921, l'auteur indique que cette espèce a une envergure de 52 mm et que cette espèce apparait en octobre[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce papillon est de couleur jaune avec une partie basale jaune d'or et une partie jaune plus clair sur le recto. Les antérieures sont finement bordées de marron. Le revers est plus clair. Dans sa description de 1921, l'auteur indique que cette espèce a une envergure de 52 mm et que cette espèce apparait en octobre.
 </t>
         </is>
       </c>
@@ -539,12 +553,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent dans le nord de l'Amérique du Sud au Brésil, en Guyane et au Pérou.
+</t>
         </is>
       </c>
     </row>
@@ -569,12 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Aphrissa fluminensis et l'Homme</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il est présent dans le nord de l'Amérique du Sud au Brésil, en Guyane et au Pérou[2].
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'a pas de statut de protection particulière.
 </t>
         </is>
       </c>
@@ -600,13 +623,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Aphrissa fluminensis et l'Homme</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Il n'a pas de statut de protection particulière.
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Aphrissa fluminensis a été décrite pour la première fois en 1921 par l'entomologiste brésilien Romualdo Ferreira d'Almeida (d) (1891-1969) sous le protonyme Catopsilia fluminensis à partir d'un spécimen mâle capturé à Corcovado (Rio de Janeiro, Brésil).
 </t>
         </is>
       </c>
@@ -632,13 +656,17 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Systématique</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Aphrissa fluminensis a été décrite pour la première fois en 1921 par l'entomologiste brésilien Romualdo Ferreira d'Almeida (d) (1891-1969) sous le protonyme Catopsilia fluminensis[3],[1], à partir d'un spécimen mâle capturé à Corcovado (Rio de Janeiro, Brésil)[1].
-</t>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Catopsilia fluminensis - protonyme
+Catopsilia etiolata (Forbes, 1927)
+Aphrissa statira palleola (Zikán, 1940)
+Phoebis (Aphrissa) statira statira discoflava (Bryk, 1953)</t>
         </is>
       </c>
     </row>
@@ -663,43 +691,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Synonymie</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Catopsilia fluminensis - protonyme
-Catopsilia etiolata (Forbes, 1927)[4]
-Aphrissa statira palleola (Zikán, 1940)
-Phoebis (Aphrissa) statira statira discoflava (Bryk, 1953)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Aphrissa_fluminensis</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aphrissa_fluminensis</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
